--- a/tests/bin/OpenRefine_exports/2_JR1_2017.xlsx
+++ b/tests/bin/OpenRefine_exports/2_JR1_2017.xlsx
@@ -48,12 +48,6 @@
     <t>Data_Type</t>
   </si>
   <si>
-    <t>R4_Month</t>
-  </si>
-  <si>
-    <t>R4_Count</t>
-  </si>
-  <si>
     <t>Library Journal</t>
   </si>
   <si>
@@ -190,6 +184,12 @@
   </si>
   <si>
     <t>Article</t>
+  </si>
+  <si>
+    <t>Usage_Date</t>
+  </si>
+  <si>
+    <t>Usage_Count</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J52"/>
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,45 +548,45 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1">
         <v>42552</v>
@@ -597,34 +597,34 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1">
         <v>42583</v>
@@ -635,34 +635,34 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1">
         <v>42614</v>
@@ -673,34 +673,34 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K5" s="1">
         <v>42644</v>
@@ -711,34 +711,34 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1">
         <v>42675</v>
@@ -749,34 +749,34 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K7" s="1">
         <v>42705</v>
@@ -787,34 +787,34 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K8" s="1">
         <v>42736</v>
@@ -825,34 +825,34 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="1">
         <v>42767</v>
@@ -863,34 +863,34 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K10" s="1">
         <v>42795</v>
@@ -901,34 +901,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1">
         <v>42826</v>
@@ -939,34 +939,34 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1">
         <v>42856</v>
@@ -977,34 +977,34 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K13" s="1">
         <v>42887</v>
@@ -1015,34 +1015,34 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1">
         <v>42552</v>
@@ -1053,34 +1053,34 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15" s="1">
         <v>42583</v>
@@ -1091,34 +1091,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1">
         <v>42614</v>
@@ -1129,34 +1129,34 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K17" s="1">
         <v>42644</v>
@@ -1167,34 +1167,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K18" s="1">
         <v>42675</v>
@@ -1205,34 +1205,34 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19" s="1">
         <v>42705</v>
@@ -1243,34 +1243,34 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K20" s="1">
         <v>42736</v>
@@ -1281,34 +1281,34 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21" s="1">
         <v>42767</v>
@@ -1319,34 +1319,34 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>20</v>
       </c>
-      <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K22" s="1">
         <v>42795</v>
@@ -1357,34 +1357,34 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K23" s="1">
         <v>42826</v>
@@ -1395,34 +1395,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K24" s="1">
         <v>42887</v>
@@ -1433,34 +1433,34 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K25" s="1">
         <v>42583</v>
@@ -1471,34 +1471,34 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="F26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K26" s="1">
         <v>42644</v>
@@ -1509,34 +1509,34 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27" s="1">
         <v>42675</v>
@@ -1547,34 +1547,34 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28" s="1">
         <v>42705</v>
@@ -1585,34 +1585,34 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
-      </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K29" s="1">
         <v>42795</v>
@@ -1623,34 +1623,34 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>24</v>
       </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K30" s="1">
         <v>42826</v>
@@ -1661,34 +1661,34 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>28</v>
       </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K31" s="1">
         <v>42552</v>
@@ -1699,34 +1699,34 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
         <v>27</v>
       </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>28</v>
       </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
       <c r="H32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K32" s="1">
         <v>42614</v>
@@ -1737,34 +1737,34 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>28</v>
       </c>
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33" s="1">
         <v>42644</v>
@@ -1775,34 +1775,34 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
         <v>27</v>
       </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>28</v>
       </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K34" s="1">
         <v>42675</v>
@@ -1813,34 +1813,34 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>28</v>
       </c>
-      <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K35" s="1">
         <v>42736</v>
@@ -1851,34 +1851,34 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
         <v>27</v>
       </c>
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>28</v>
       </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
       <c r="H36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K36" s="1">
         <v>42767</v>
@@ -1889,34 +1889,34 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
         <v>27</v>
       </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>28</v>
       </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
       <c r="H37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K37" s="1">
         <v>42795</v>
@@ -1927,34 +1927,34 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
         <v>27</v>
       </c>
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>28</v>
       </c>
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
       <c r="H38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K38" s="1">
         <v>42887</v>
@@ -1965,34 +1965,34 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>32</v>
       </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" t="s">
-        <v>34</v>
-      </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39" s="1">
         <v>42583</v>
@@ -2003,34 +2003,34 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>35</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>37</v>
       </c>
-      <c r="F40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" t="s">
-        <v>39</v>
-      </c>
       <c r="H40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K40" s="1">
         <v>42552</v>
@@ -2041,34 +2041,34 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>42</v>
       </c>
-      <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s">
-        <v>44</v>
-      </c>
       <c r="H41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K41" s="1">
         <v>42552</v>
@@ -2079,34 +2079,34 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="F42" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>42</v>
       </c>
-      <c r="F42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" t="s">
-        <v>44</v>
-      </c>
       <c r="H42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K42" s="1">
         <v>42583</v>
@@ -2117,34 +2117,34 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>41</v>
       </c>
-      <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>42</v>
       </c>
-      <c r="F43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s">
-        <v>44</v>
-      </c>
       <c r="H43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K43" s="1">
         <v>42644</v>
@@ -2155,34 +2155,34 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" t="s">
         <v>41</v>
       </c>
-      <c r="C44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>42</v>
       </c>
-      <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" t="s">
-        <v>44</v>
-      </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K44" s="1">
         <v>42767</v>
@@ -2193,34 +2193,34 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>40</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>42</v>
       </c>
-      <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" t="s">
-        <v>44</v>
-      </c>
       <c r="H45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K45" s="1">
         <v>42795</v>
@@ -2231,34 +2231,34 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>47</v>
       </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" t="s">
-        <v>49</v>
-      </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K46" s="1">
         <v>42644</v>
@@ -2269,34 +2269,34 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" t="s">
         <v>46</v>
       </c>
-      <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>47</v>
       </c>
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="G47" t="s">
-        <v>49</v>
-      </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K47" s="1">
         <v>42826</v>
@@ -2307,34 +2307,34 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
+      <c r="F48" t="s">
         <v>51</v>
       </c>
-      <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" t="s">
-        <v>53</v>
-      </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K48" s="1">
         <v>42552</v>
@@ -2345,34 +2345,34 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="F49" t="s">
         <v>51</v>
       </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" t="s">
-        <v>53</v>
-      </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K49" s="1">
         <v>42644</v>
@@ -2383,34 +2383,34 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K50" s="1">
         <v>42675</v>
@@ -2421,34 +2421,34 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F51" t="s">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" t="s">
-        <v>53</v>
-      </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K51" s="1">
         <v>42705</v>
@@ -2459,34 +2459,34 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F52" t="s">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" t="s">
-        <v>53</v>
-      </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K52" s="1">
         <v>42795</v>
